--- a/server/settings/students_data.xlsx
+++ b/server/settings/students_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27514"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3763E5A6-3077-4D40-86F5-81FA85BFAB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C021A9B1-0E11-4ABC-9C59-A6A6EF29FF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="20">
   <si>
     <t>MSSV</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Nguyễn Sỹ</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -647,6 +650,1886 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>123459</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>123460</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>123461</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>123462</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>123463</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>123464</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>123465</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>123466</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>123467</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>123468</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>123469</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>123470</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>123471</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>123472</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>123473</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>123474</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>123475</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>123476</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>123477</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>123478</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>123479</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>123480</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>123481</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>123482</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>123483</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>123484</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>123485</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>123486</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>123487</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>123488</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>123489</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>123490</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>123491</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>123492</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>123493</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>123494</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>36</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>123495</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>123496</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>123497</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>123498</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>123499</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>123500</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>123501</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>43</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>123502</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>123503</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>123504</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>123505</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>123506</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>123507</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>49</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>123508</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>123509</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>51</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>123510</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>123511</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>123512</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>54</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>123513</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>55</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>123514</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>56</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>123515</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>57</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>123516</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>58</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>123517</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>59</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>123518</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>60</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>123519</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71">
+        <v>61</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>123520</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>123521</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>123522</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74">
+        <v>64</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>123523</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>65</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>123524</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>66</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>123525</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>67</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>123526</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>123527</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>69</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>123528</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80">
+        <v>70</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>123529</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>71</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>123530</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82">
+        <v>72</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>123531</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <v>73</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>123532</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84">
+        <v>74</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>123533</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>75</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>123534</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>76</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>123535</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87">
+        <v>77</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>123536</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88">
+        <v>78</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>123537</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89">
+        <v>79</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>123538</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90">
+        <v>80</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>123539</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91">
+        <v>81</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>123540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92">
+        <v>82</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>123541</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>83</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>123542</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94">
+        <v>84</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>123543</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95">
+        <v>85</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>123544</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96">
+        <v>86</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>123545</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97">
+        <v>87</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>123546</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98">
+        <v>88</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>123547</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99">
+        <v>89</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>123548</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100">
+        <v>90</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>123549</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101">
+        <v>91</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>123550</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <v>92</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>123551</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103">
+        <v>93</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>123552</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104">
+        <v>94</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
